--- a/Query Generalization.xlsx
+++ b/Query Generalization.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27510"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Downloads\nlp-proj-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dungeoun/nlp-proj/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19290" windowHeight="7050" xr2:uid="{F06019BF-8B32-4A57-ADEC-31685F6A90CD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
   <si>
     <t>Query Count</t>
   </si>
@@ -168,12 +174,90 @@
   </si>
   <si>
     <t>D1518_S8</t>
+  </si>
+  <si>
+    <t>Greyhound Lines will go forward with the transaction</t>
+  </si>
+  <si>
+    <t>Greyhound  lines will go forward</t>
+  </si>
+  <si>
+    <t>D2211_S4</t>
+  </si>
+  <si>
+    <t>indonesia has to find oil</t>
+  </si>
+  <si>
+    <t>D2263_S8</t>
+  </si>
+  <si>
+    <t>Indonesia, one of the 13 members of OPEC, must find new oil</t>
+  </si>
+  <si>
+    <t>co declares qualterly divident</t>
+  </si>
+  <si>
+    <t>Hanover Insurance Co said its\n  board declared a quarterly dividend</t>
+  </si>
+  <si>
+    <t>D234_S1</t>
+  </si>
+  <si>
+    <t>Iran attacks US ships</t>
+  </si>
+  <si>
+    <t>D2956_S2</t>
+  </si>
+  <si>
+    <t>Iranian attack damaging a U.S.-flagged ship</t>
+  </si>
+  <si>
+    <t>Paris Accord's influence on dollar</t>
+  </si>
+  <si>
+    <t>The dollar opened lower against virtually all currencies\n  and traded in a narrow range after the communique, which\n  reaffirmed support for the Paris accord on currency</t>
+  </si>
+  <si>
+    <t>D323_S2</t>
+  </si>
+  <si>
+    <t>Sun Co to raise crude oil postings</t>
+  </si>
+  <si>
+    <t>Sun Co was the first to raise crude oil postings yesterday\n  afternoon and today many other companies are following</t>
+  </si>
+  <si>
+    <t>SWEDISH INDUSTRIAL PRODUCTION RISES SHARPLY\n  Swedish industrial production rose</t>
+  </si>
+  <si>
+    <t>Swedish industrial production</t>
+  </si>
+  <si>
+    <t>D732_S1</t>
+  </si>
+  <si>
+    <t>Industry sources said Texas Pacific has submitted lower\n  reserve estimates for the field than Statoil and shown little\n  interest in its development</t>
+  </si>
+  <si>
+    <t>Texas Company posting lower reserve estimates</t>
+  </si>
+  <si>
+    <t>D749_S9</t>
+  </si>
+  <si>
+    <t>Australia's economy performs well</t>
+  </si>
+  <si>
+    <t>AUSTRALIA SET TO GROW, BUT UNEMPLOYMENT MAY RISE</t>
+  </si>
+  <si>
+    <t>D1839_S1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -518,22 +602,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{905BA387-CDA4-4492-839C-90E18D40F2F9}">
-  <dimension ref="A1:H18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -553,7 +637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -579,7 +663,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -599,7 +683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -607,7 +691,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -627,7 +711,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -647,7 +731,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -667,7 +751,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -687,7 +771,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -695,7 +779,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -703,7 +787,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -711,7 +795,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>24</v>
       </c>
@@ -725,7 +809,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>28</v>
       </c>
@@ -745,7 +829,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>38</v>
       </c>
@@ -759,7 +843,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>40</v>
       </c>
@@ -773,7 +857,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>43</v>
       </c>
@@ -787,7 +871,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>44</v>
       </c>
@@ -801,7 +885,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>46</v>
       </c>
@@ -813,6 +897,156 @@
       </c>
       <c r="F18" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29">
+        <v>7</v>
+      </c>
+      <c r="F29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/Query Generalization.xlsx
+++ b/Query Generalization.xlsx
@@ -185,30 +185,15 @@
     <t>D2211_S4</t>
   </si>
   <si>
-    <t>indonesia has to find oil</t>
-  </si>
-  <si>
-    <t>D2263_S8</t>
-  </si>
-  <si>
     <t>Indonesia, one of the 13 members of OPEC, must find new oil</t>
   </si>
   <si>
-    <t>co declares qualterly divident</t>
-  </si>
-  <si>
     <t>Hanover Insurance Co said its\n  board declared a quarterly dividend</t>
   </si>
   <si>
     <t>D234_S1</t>
   </si>
   <si>
-    <t>Iran attacks US ships</t>
-  </si>
-  <si>
-    <t>D2956_S2</t>
-  </si>
-  <si>
     <t>Iranian attack damaging a U.S.-flagged ship</t>
   </si>
   <si>
@@ -252,6 +237,21 @@
   </si>
   <si>
     <t>D1839_S1</t>
+  </si>
+  <si>
+    <t>Iran responsible for terrorism</t>
+  </si>
+  <si>
+    <t>D2096_S19</t>
+  </si>
+  <si>
+    <t>Hanover co declares qualterly divident</t>
+  </si>
+  <si>
+    <t>D5_S4</t>
+  </si>
+  <si>
+    <t>indonesia importing oil</t>
   </si>
 </sst>
 </file>
@@ -606,7 +606,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -909,6 +909,9 @@
       <c r="C22" t="s">
         <v>49</v>
       </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
       <c r="E22">
         <v>4</v>
       </c>
@@ -921,16 +924,19 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>73</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -938,16 +944,19 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>71</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
       </c>
       <c r="E24">
         <v>2</v>
       </c>
       <c r="F24" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -955,16 +964,19 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>69</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -972,16 +984,19 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
       </c>
       <c r="E26">
         <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -989,10 +1004,13 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>58</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
       </c>
       <c r="E27" t="s">
         <v>7</v>
@@ -1003,16 +1021,19 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s">
-        <v>66</v>
+        <v>61</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
       </c>
       <c r="E28">
         <v>2</v>
       </c>
       <c r="F28" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1020,16 +1041,19 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>69</v>
+        <v>64</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
       </c>
       <c r="E29">
         <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1037,16 +1061,19 @@
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>66</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
       </c>
       <c r="E30">
         <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
